--- a/Budget/mob_free.xlsx
+++ b/Budget/mob_free.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>app</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>sessions</t>
+  </si>
+  <si>
+    <t>users</t>
   </si>
   <si>
     <t>newUsers</t>
@@ -259,37 +262,37 @@
         <v>23.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2719.0</v>
+        <v>2721.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5362.0</v>
+        <v>5984.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3575.0</v>
+        <v>4922.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2069.0</v>
+        <v>3666.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3054.0</v>
+        <v>4730.0</v>
       </c>
       <c r="I4" t="n">
-        <v>2107.0</v>
+        <v>4071.0</v>
       </c>
       <c r="J4" t="n">
-        <v>2006.0</v>
+        <v>4015.0</v>
       </c>
       <c r="K4" t="n">
-        <v>6687.0</v>
+        <v>9049.0</v>
       </c>
       <c r="L4" t="n">
-        <v>5632.0</v>
+        <v>9150.0</v>
       </c>
       <c r="M4" t="n">
-        <v>5023.0</v>
+        <v>9190.0</v>
       </c>
       <c r="N4" t="n">
-        <v>4780.0</v>
+        <v>9666.0</v>
       </c>
     </row>
     <row r="5">
@@ -303,36 +306,124 @@
         <v>26.0</v>
       </c>
       <c r="D5" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3503.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2970.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2291.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2999.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2228.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6244.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5927.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5648.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6061.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2719.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5362.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3575.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2069.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3054.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2107.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6687.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5632.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5023.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4780.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>606.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" t="n">
         <v>3311.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7" t="n">
         <v>2136.0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>1103.0</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" t="n">
         <v>1817.0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" t="n">
         <v>937.0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J7" t="n">
         <v>971.0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K7" t="n">
         <v>4659.0</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L7" t="n">
         <v>3603.0</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M7" t="n">
         <v>2874.0</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N7" t="n">
         <v>2831.0</v>
       </c>
     </row>

--- a/Budget/mob_free.xlsx
+++ b/Budget/mob_free.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>app</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>201501</t>
+  </si>
+  <si>
+    <t>201502</t>
   </si>
   <si>
     <t>android</t>
@@ -96,71 +99,92 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>55940.0</v>
       </c>
+      <c r="D2" t="n">
+        <v>76629.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>25681.0</v>
       </c>
+      <c r="D3" t="n">
+        <v>32754.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>15754.0</v>
       </c>
+      <c r="D4" t="n">
+        <v>19919.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>9401.0</v>
       </c>
+      <c r="D5" t="n">
+        <v>11019.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>10180.0</v>
       </c>
+      <c r="D6" t="n">
+        <v>11471.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>5701.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5622.0</v>
       </c>
     </row>
   </sheetData>
